--- a/Team-Data/2013-14/4-11-2013-14.xlsx
+++ b/Team-Data/2013-14/4-11-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,22 +733,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
         <v>81.7</v>
@@ -690,13 +757,13 @@
         <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
@@ -705,19 +772,19 @@
         <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
         <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
@@ -738,13 +805,13 @@
         <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -768,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -783,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -801,10 +868,10 @@
         <v>27</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -816,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>0.304</v>
+        <v>0.295</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L3" t="n">
         <v>6.9</v>
@@ -878,31 +945,31 @@
         <v>20.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S3" t="n">
         <v>30.5</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
         <v>20.9</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
@@ -920,22 +987,22 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -950,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>6</v>
@@ -977,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1060,7 +1127,7 @@
         <v>23.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
@@ -1069,7 +1136,7 @@
         <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="R4" t="n">
         <v>8.699999999999999</v>
@@ -1090,10 +1157,10 @@
         <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
         <v>21.8</v>
@@ -1102,13 +1169,13 @@
         <v>20.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1123,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1132,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
@@ -1147,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
@@ -1245,10 +1312,10 @@
         <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.742</v>
@@ -1257,13 +1324,13 @@
         <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V5" t="n">
         <v>12.3</v>
@@ -1281,25 +1348,25 @@
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC5" t="n">
         <v>-0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1335,13 +1402,13 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU5" t="n">
         <v>17</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>16</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1356,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.432</v>
@@ -1424,37 +1491,37 @@
         <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
         <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S6" t="n">
         <v>32.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U6" t="n">
         <v>22.6</v>
       </c>
       <c r="V6" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
@@ -1466,22 +1533,22 @@
         <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1490,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1511,7 +1578,7 @@
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
         <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
         <v>12</v>
@@ -1630,10 +1697,10 @@
         <v>21.1</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
@@ -1642,19 +1709,19 @@
         <v>5.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC7" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1669,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1684,16 +1751,16 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -1839,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
@@ -1857,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1869,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1881,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>26</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2042,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2063,10 +2130,10 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2161,7 +2228,7 @@
         <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.672</v>
       </c>
       <c r="R10" t="n">
         <v>14.5</v>
@@ -2173,19 +2240,19 @@
         <v>45.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
         <v>20.1</v>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2227,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2248,10 +2315,10 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>12</v>
@@ -2263,19 +2330,19 @@
         <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,25 +2389,25 @@
         <v>39.2</v>
       </c>
       <c r="J11" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
         <v>0.461</v>
       </c>
       <c r="L11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
         <v>24.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.755</v>
@@ -2349,19 +2416,19 @@
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U11" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
         <v>5.1</v>
@@ -2370,19 +2437,19 @@
         <v>4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2418,10 +2485,10 @@
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
         <v>18</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="n">
         <v>14</v>
@@ -2451,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
         <v>52</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.658</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2507,7 +2574,7 @@
         <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L12" t="n">
         <v>9.5</v>
@@ -2516,22 +2583,22 @@
         <v>26.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O12" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="n">
         <v>0.709</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
         <v>45.4</v>
@@ -2549,22 +2616,22 @@
         <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA12" t="n">
         <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2585,16 +2652,16 @@
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>18</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,37 +2753,37 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
         <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0.779</v>
       </c>
       <c r="R13" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T13" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U13" t="n">
         <v>20</v>
@@ -2734,37 +2801,37 @@
         <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
       </c>
       <c r="AI13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>28</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
@@ -2776,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2785,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>23</v>
@@ -2794,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2818,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2997,10 +3064,10 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,10 +3117,10 @@
         <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3062,7 +3129,7 @@
         <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O15" t="n">
         <v>17.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
         <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3131,25 +3198,25 @@
         <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>27</v>
@@ -3176,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3235,7 +3302,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
@@ -3244,31 +3311,31 @@
         <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.743</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U16" t="n">
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W16" t="n">
         <v>7.7</v>
@@ -3283,25 +3350,25 @@
         <v>19.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>28</v>
@@ -3334,10 +3401,10 @@
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3358,13 +3425,13 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA16" t="n">
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="n">
         <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,16 +3481,16 @@
         <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.503</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.367</v>
@@ -3438,7 +3505,7 @@
         <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="S17" t="n">
         <v>29.2</v>
@@ -3447,13 +3514,13 @@
         <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V17" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3462,28 +3529,28 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>64</v>
       </c>
       <c r="G18" t="n">
-        <v>0.19</v>
+        <v>0.179</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
         <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
@@ -3611,13 +3678,13 @@
         <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P18" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3629,34 +3696,34 @@
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
         <v>5</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,13 +3738,13 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
@@ -3695,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3707,7 +3774,7 @@
         <v>23</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>18</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="n">
         <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J19" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L19" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O19" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
@@ -3808,46 +3875,46 @@
         <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U19" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V19" t="n">
         <v>13.9</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="AC19" t="n">
         <v>3</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3856,7 +3923,7 @@
         <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3886,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3901,13 +3968,13 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA19" t="n">
         <v>3</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,7 +4030,7 @@
         <v>82.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>5.8</v>
@@ -3972,22 +4039,22 @@
         <v>15.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
         <v>41.8</v>
@@ -4002,25 +4069,25 @@
         <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA20" t="n">
         <v>20.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4035,10 +4102,10 @@
         <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>12</v>
@@ -4089,13 +4156,13 @@
         <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.43</v>
+        <v>0.423</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,10 +4209,10 @@
         <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
         <v>9.300000000000001</v>
@@ -4154,16 +4221,16 @@
         <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O21" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P21" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
         <v>10.7</v>
@@ -4175,34 +4242,34 @@
         <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
         <v>7.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z21" t="n">
         <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4217,22 +4284,22 @@
         <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4259,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4271,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -4306,58 +4373,58 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
         <v>82.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N22" t="n">
         <v>0.366</v>
       </c>
       <c r="O22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
         <v>24.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.4</v>
@@ -4366,7 +4433,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>3.6</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,22 +4493,22 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>0.291</v>
+        <v>0.295</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K23" t="n">
         <v>0.445</v>
@@ -4518,13 +4585,13 @@
         <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O23" t="n">
         <v>16</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q23" t="n">
         <v>0.763</v>
@@ -4554,55 +4621,55 @@
         <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>25</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4617,13 +4684,13 @@
         <v>19</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
@@ -4691,19 +4758,19 @@
         <v>87.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L24" t="n">
         <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.313</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
         <v>23.3</v>
@@ -4718,16 +4785,16 @@
         <v>31.2</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
         <v>17</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
@@ -4742,13 +4809,13 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11</v>
+        <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4763,10 +4830,10 @@
         <v>12</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4799,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
         <v>47</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.595</v>
+        <v>0.603</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4882,55 +4949,55 @@
         <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
         <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
         <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
         <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4954,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4969,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
@@ -4978,25 +5045,25 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5064,7 +5131,7 @@
         <v>25.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O26" t="n">
         <v>19.1</v>
@@ -5082,7 +5149,7 @@
         <v>33.8</v>
       </c>
       <c r="T26" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U26" t="n">
         <v>23.1</v>
@@ -5097,25 +5164,25 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5178,7 +5245,7 @@
         <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
@@ -5369,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
@@ -5437,7 +5504,7 @@
         <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
@@ -5455,7 +5522,7 @@
         <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5542,10 +5609,10 @@
         <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
         <v>46</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.582</v>
+        <v>0.59</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.445</v>
       </c>
       <c r="L29" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M29" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
         <v>0.783</v>
@@ -5631,13 +5698,13 @@
         <v>42.4</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.2</v>
@@ -5649,25 +5716,25 @@
         <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="n">
         <v>101.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5682,13 +5749,13 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
@@ -5792,16 +5859,16 @@
         <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
@@ -5810,13 +5877,13 @@
         <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W30" t="n">
         <v>6.9</v>
@@ -5831,16 +5898,16 @@
         <v>20.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC30" t="n">
         <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5867,7 +5934,7 @@
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
         <v>25</v>
@@ -5903,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
         <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
         <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
         <v>0.456</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M31" t="n">
         <v>20.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q31" t="n">
         <v>0.731</v>
@@ -5998,31 +6065,31 @@
         <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
         <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6052,13 +6119,13 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6070,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
@@ -6088,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2013-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
     </row>
